--- a/outputs/2_dists_by_taxcode_proc_kendall.xlsx
+++ b/outputs/2_dists_by_taxcode_proc_kendall.xlsx
@@ -742,7 +742,7 @@
     <t xml:space="preserve">LI001</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTI TWP DIST 1-06</t>
+    <t xml:space="preserve">MULTI TWP DIST 1-18</t>
   </si>
   <si>
     <t xml:space="preserve">LISBON TWP</t>

--- a/outputs/2_dists_by_taxcode_proc_kendall.xlsx
+++ b/outputs/2_dists_by_taxcode_proc_kendall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t xml:space="preserve">tax_code</t>
   </si>
@@ -1531,7 +1531,10 @@
     <t xml:space="preserve">H 101; H 111; H 18</t>
   </si>
   <si>
-    <t xml:space="preserve">AURORA LIBRARY; C B PHILLIPS PUB LBRY DIST; OSWEGO LBRY DIST; PLAINFIELD LBRY DIST; PLANO COMM LBRY DIST; SANDWICH PUB LBRY DIST; THREE RIVERS LBRY DIST</t>
+    <t xml:space="preserve">C B PHILLIPS PUB LBRY DIST; OSWEGO LBRY DIST; PLAINFIELD LBRY DIST; PLANO COMM LBRY DIST; SANDWICH PUB LBRY DIST; THREE RIVERS LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORA LIBRARY; YORKVILLE LIBRARY</t>
   </si>
   <si>
     <t xml:space="preserve">AURORA; JOLIET; LISBON; MILLBROOK; MILLINGTON; MINOOKA; MONTGOMERY; NEWARK; OSWEGO; PLAINFIELD; PLANO; PLATTVILLE; SANDWICH; YORKVILLE</t>
@@ -11531,11 +11534,11 @@
         <v>25</v>
       </c>
       <c r="G223"/>
-      <c r="H223" t="s">
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223" t="s">
         <v>378</v>
       </c>
-      <c r="I223"/>
-      <c r="J223"/>
       <c r="K223" t="s">
         <v>379</v>
       </c>
@@ -11947,11 +11950,11 @@
         <v>25</v>
       </c>
       <c r="G232"/>
-      <c r="H232" t="s">
+      <c r="H232"/>
+      <c r="I232"/>
+      <c r="J232" t="s">
         <v>378</v>
       </c>
-      <c r="I232"/>
-      <c r="J232"/>
       <c r="K232" t="s">
         <v>379</v>
       </c>
@@ -11995,11 +11998,11 @@
         <v>25</v>
       </c>
       <c r="G233"/>
-      <c r="H233" t="s">
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233" t="s">
         <v>378</v>
       </c>
-      <c r="I233"/>
-      <c r="J233"/>
       <c r="K233" t="s">
         <v>379</v>
       </c>
@@ -12303,11 +12306,11 @@
         <v>25</v>
       </c>
       <c r="G240"/>
-      <c r="H240" t="s">
+      <c r="H240"/>
+      <c r="I240"/>
+      <c r="J240" t="s">
         <v>378</v>
       </c>
-      <c r="I240"/>
-      <c r="J240"/>
       <c r="K240" t="s">
         <v>379</v>
       </c>
@@ -12347,11 +12350,11 @@
         <v>25</v>
       </c>
       <c r="G241"/>
-      <c r="H241" t="s">
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241" t="s">
         <v>378</v>
       </c>
-      <c r="I241"/>
-      <c r="J241"/>
       <c r="K241" t="s">
         <v>379</v>
       </c>
@@ -13053,11 +13056,11 @@
         <v>25</v>
       </c>
       <c r="G256"/>
-      <c r="H256" t="s">
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256" t="s">
         <v>378</v>
       </c>
-      <c r="I256"/>
-      <c r="J256"/>
       <c r="K256" t="s">
         <v>379</v>
       </c>
@@ -13801,11 +13804,11 @@
         <v>25</v>
       </c>
       <c r="G272"/>
-      <c r="H272" t="s">
+      <c r="H272"/>
+      <c r="I272"/>
+      <c r="J272" t="s">
         <v>378</v>
       </c>
-      <c r="I272"/>
-      <c r="J272"/>
       <c r="K272" t="s">
         <v>379</v>
       </c>
@@ -13987,11 +13990,11 @@
         <v>25</v>
       </c>
       <c r="G276"/>
-      <c r="H276" t="s">
+      <c r="H276"/>
+      <c r="I276"/>
+      <c r="J276" t="s">
         <v>378</v>
       </c>
-      <c r="I276"/>
-      <c r="J276"/>
       <c r="K276" t="s">
         <v>379</v>
       </c>
@@ -14031,11 +14034,11 @@
         <v>25</v>
       </c>
       <c r="G277"/>
-      <c r="H277" t="s">
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277" t="s">
         <v>378</v>
       </c>
-      <c r="I277"/>
-      <c r="J277"/>
       <c r="K277" t="s">
         <v>379</v>
       </c>
@@ -14169,11 +14172,11 @@
         <v>25</v>
       </c>
       <c r="G280"/>
-      <c r="H280" t="s">
+      <c r="H280"/>
+      <c r="I280"/>
+      <c r="J280" t="s">
         <v>378</v>
       </c>
-      <c r="I280"/>
-      <c r="J280"/>
       <c r="K280" t="s">
         <v>379</v>
       </c>
@@ -14215,11 +14218,11 @@
         <v>25</v>
       </c>
       <c r="G281"/>
-      <c r="H281" t="s">
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281" t="s">
         <v>378</v>
       </c>
-      <c r="I281"/>
-      <c r="J281"/>
       <c r="K281" t="s">
         <v>379</v>
       </c>
@@ -14792,7 +14795,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12">
@@ -14800,7 +14803,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13">
@@ -14808,7 +14811,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14">
@@ -14816,7 +14819,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15">
@@ -14824,7 +14827,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16">
@@ -14832,7 +14835,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17">
@@ -14840,7 +14843,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18">
@@ -14848,7 +14851,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19">
@@ -14856,7 +14859,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20">
@@ -14864,7 +14867,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21">
@@ -14891,13 +14894,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
